--- a/main/file/errors.xlsx
+++ b/main/file/errors.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ФИО</t>
+          <t>БСО</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,12 +444,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Галкина Мария Борисовна</t>
+          <t>ХХХ 0246741695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -459,12 +459,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Шерстобитов Евгений Сергеевич</t>
+          <t>ХХХ 0248060885</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Коловоротный Владислав Сергеевич</t>
+          <t>ХХХ 0250451793</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -489,12 +489,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Березуцкий Антон Георгиевич</t>
+          <t>ХХХ 0245702108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Тимков Сергей Николаевич</t>
+          <t>ХХХ 0247241690</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -519,12 +519,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Пастушенко Ольга Олеговна</t>
+          <t>ХХХ 0248030847</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Шарапов Павел Игоревич</t>
+          <t>ХХХ 0249580853</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ширяев Игорь Анатольевич</t>
+          <t>ХХХ 0249592861</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -564,12 +564,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Медведев Максим Сергеевич</t>
+          <t>ХХХ 0251578773</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Агафонов Валерий Викторович</t>
+          <t>ХХХ 0251813274</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Посредников Сергей Юрьевич</t>
+          <t>ХХХ 0253500276</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Мусинян Овсеп Алешаевич</t>
+          <t>ХХХ 0253869981</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ким Владимир Афанасьевич</t>
+          <t>ХХХ 0253881005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Кончаков Дмитрий Сергеевич</t>
+          <t>ХХХ 0254177868</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Уваров Олег Юрьевич</t>
+          <t>ХХХ 0254577827</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трунин Ян Андреевич</t>
+          <t>ХХХ 0254659364</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Березов Алексей Евгеньевич</t>
+          <t>ХХХ 0246341071</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Васильева Татьяна Валентиновна</t>
+          <t>None 22000IPA9960024258</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -714,12 +714,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ячменева Ирина Александровна</t>
+          <t>ХХХ 0245091554</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Абакумов Максим Сергеевич</t>
+          <t>ХХХ 0245726676</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -744,12 +744,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Гришин Павел Сергеевич</t>
+          <t>ХХХ 0245757058</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Хвостов Дмитрий Михайлович</t>
+          <t>ХХХ 0246595254</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Афанасьев Константин Сергеевич</t>
+          <t>ХХХ 0246705814</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Тимофеев Геннадий Владимирович</t>
+          <t>ХХХ 0248240086</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -804,12 +804,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Аржаев Денис Александрович</t>
+          <t>ХХХ 0248702461</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Колошин Алексей Александрович</t>
+          <t>ХХХ 0248815259</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Королев Виктор Николаевич</t>
+          <t>ХХХ 0249365505</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Пушкарев Виталий Александрович</t>
+          <t>ХХХ 0249569124</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ющенко Максим Станиславович</t>
+          <t>ХХХ 0249637148</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Дрожжин Алексей Владимирович</t>
+          <t>ХХХ 0250030199</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Румянцева Ольга Владимировна</t>
+          <t>ХХХ 0250466980</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Кучеренко Ольга Альбертовна</t>
+          <t>ХХХ 0251513137</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -924,12 +924,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Родина Олеся Викторовна</t>
+          <t>ХХХ 0251517454</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Батищев Алексей Михайлович</t>
+          <t>ХХХ 0251722847</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Марданов Санан Умуд Оглы</t>
+          <t>ХХХ 0251748363</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Сынков Иван Александрович</t>
+          <t>ХХХ 0252015281</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Мартынов Александр Юрьевич</t>
+          <t>ХХХ 0252023915</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Цатурян Георгий Ашотович</t>
+          <t>ХХХ 0252187459</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Смольянинов Святослав Игоревич</t>
+          <t>ХХХ 0252563396</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Бучацкая Светлана Александровна</t>
+          <t>ХХХ 0252868389</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Погуляка Илья Петрович</t>
+          <t>ХХХ 0253518111</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Полдолин Евгений Александрович</t>
+          <t>ХХХ 0253541456</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Марков Алексей Николаевич</t>
+          <t>ХХХ 0253896203</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Петрухин Александр Вячеславович</t>
+          <t>ХХХ 0254089150</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Овинников Павел Николаевич</t>
+          <t>ХХХ 0254090916</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Кулеш Светлана Александровна</t>
+          <t>ХХХ 0254110997</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ромашкина Татьяна Альбертовна</t>
+          <t>ХХХ 0254412775</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Макаров Сергей Викторович</t>
+          <t>ХХХ 0254650598</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Крутов Сергей Геннадьевич</t>
+          <t>ХХХ 0248779897</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Дмитриев Денис Михайлович</t>
+          <t>ХХХ 0250314674</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
@@ -1194,837 +1194,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Найденов Виктор Алексеевич</t>
+          <t>ХХХ 0247577165</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Хохлова Олеся Игоревна</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Кобцев Алексей Сергеевич</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Бабенков Николай Михайлович</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Баранцев Александр Иванович</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Петрова Ольга Владимировна</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Налетов Марина Николаевна</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Сафонников Михаил Сергеевич</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Гусев Игорь Анатольевич</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Винничек Святослав Андреевич</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Панфилов Владимир Николаевич</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Попов Иван Владимирович</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Кизуб Виктория Александровна</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Тихов Андрей Сергеевич</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Алексеев Роман Сергеевич</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Косцов Максим Александрович</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Джаватханов Маратхан Дерметханович</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ульянов Николай Александрович</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Козицын Анатолий Владимирович</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Попова Анастасия Игоревна</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Кулагина Анастасия Валерьевна</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Катасонов Сергей Алексеевич</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Махомет Дмитрий Викторович</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Егорычев Андрей Николаевич</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Маланин Дмитрий Владимирович</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Тузлуков Андрей Александрович</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Крутин Дмитрий Дмитриевич</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Волков Александр Владимирович</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Козлов Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Кучумов Сергей Юрьевич</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Тюнина Олеся Михайловна</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Симоненко Олег Викторович</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Другов Владимир Александрович</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Храпочук Екатерина Николаевна</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Осмаловский Алексей Николаевич</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Антипова Лидия Викторовна</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Ветчинников Александр Сергеевич</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Сальников Кирилл Михайлович</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Курин Ян Ильич</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Караулов Андрей Олегович</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Стрелков Николай Александрович</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Шувалова Татьяна Сергеевна</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Братухин Сергей Владимирович</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Вск: Чумаков Павел Андреевич</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Селькин Игорь Александрович</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Волчкова Анна Николаевна</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Штырлов Алексей Леонидович</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Аглеуллов Марат Мидехатьевич</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Воронцова Ольга Андреевна</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Гусейханов Гасанхан Лазимович</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Бородина Марина Владимировна</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Карачева Наталья Викторовна</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Хадиуллин Рафил Раулович</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Свистун Валерий Валерьевич</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Сетов Юрий Иванович</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Медведев Виталий Владимирович</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Дата рождения - нужен формат даты</t>
+          <t>Полис уже есть в базе</t>
         </is>
       </c>
     </row>
